--- a/resurces/docking/Reporte_Docking_AD4_TSSB.xlsx
+++ b/resurces/docking/Reporte_Docking_AD4_TSSB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joelricci/Documents/Doctorado/Taller_SSB_2021/pagina_web/Taller_SMSB_2021/resurces/docking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87009531-99E4-FF4B-AA24-F5B5BB098593}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3F2B0A-643A-744D-AE1B-910D68FF6C3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29260" yWindow="2180" windowWidth="28040" windowHeight="16240" xr2:uid="{D5374BE5-1841-7B41-B20F-710556892315}"/>
+    <workbookView minimized="1" xWindow="440" yWindow="1000" windowWidth="28040" windowHeight="16240" xr2:uid="{D5374BE5-1841-7B41-B20F-710556892315}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -583,7 +583,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
